--- a/CV3_final.xlsx
+++ b/CV3_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96326157-00C8-41BE-B1A5-A8A123AC3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEDCF63-DC3C-4112-A401-E58D2929D79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,11 @@
     <sheet name="U05CV3_final" sheetId="7" state="hidden" r:id="rId6"/>
     <sheet name="U06CV3_final" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="U07CV3_final" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="U08CV3_final" sheetId="10" r:id="rId9"/>
-    <sheet name="U09CV3_final" sheetId="11" r:id="rId10"/>
-    <sheet name="U10CV3_final" sheetId="12" r:id="rId11"/>
-    <sheet name="U11CV3_final" sheetId="13" r:id="rId12"/>
-    <sheet name="U12CV3_final" sheetId="14" r:id="rId13"/>
+    <sheet name="U08CV3_final" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="U09CV3_final" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="U10CV3_final" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="U11CV3_final" sheetId="13" state="hidden" r:id="rId12"/>
+    <sheet name="U12CV3_final" sheetId="14" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -461,6 +461,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,15 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,7 +799,7 @@
   <dimension ref="A1:AX25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+      <selection activeCell="D3" sqref="D3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -840,39 +840,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="14" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
       <c r="AL1" s="18" t="s">
         <v>83</v>
       </c>
@@ -929,115 +929,115 @@
       <c r="M2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AG2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AH2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AI2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AK2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AL2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AN2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AO2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AP2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AQ2" s="17" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AR2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="17" t="s">
+      <c r="AS2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AT2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AU2" s="17" t="s">
+      <c r="AU2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AV2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AW2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AX2" s="14" t="s">
         <v>96</v>
       </c>
     </row>
